--- a/Year3_Project/Documents/Evaluations/Weekly Analysis Results/6-3/Line Graph.xlsx
+++ b/Year3_Project/Documents/Evaluations/Weekly Analysis Results/6-3/Line Graph.xlsx
@@ -1724,25 +1724,25 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="302190488"/>
-        <c:axId val="247651352"/>
+        <c:axId val="362116712"/>
+        <c:axId val="362112136"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="302190488"/>
+        <c:axId val="362116712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="247651352"/>
+        <c:crossAx val="362112136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="247651352"/>
+        <c:axId val="362112136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1750,7 +1750,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="302190488"/>
+        <c:crossAx val="362116712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1773,16 +1773,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>889000</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2127,7 +2127,7 @@
   <dimension ref="A1:I202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1048576"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
